--- a/Nvprof summary/similarity results/MD_Sim.xlsx
+++ b/Nvprof summary/similarity results/MD_Sim.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/Nvprof summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/Nvprof summary/similarity results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2421,8 +2421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:XFD80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2897,28 +2898,28 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>2.9755590000000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>5.5620000000000001E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2.6652909999999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>2.662712</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>2.9833090000000002</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>5.921E-3</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>2.1783389999999998</v>
       </c>
       <c r="I11">
@@ -2943,28 +2944,28 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>2.7994509999999999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>3.2560000000000002E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>2.4835229999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>2.4836049999999998</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>2.807728</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>3.4659999999999999E-3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>1.7974619999999999</v>
       </c>
       <c r="I12">
@@ -5013,28 +5014,28 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>1475249</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>5661565</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>3325568</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>2771256</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>2941568</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>5317501</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <v>650958</v>
       </c>
       <c r="I57">
@@ -5059,28 +5060,28 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>5864939</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>5693052</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>12189174</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>10150313</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>11717173</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>5348985</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <v>2068965</v>
       </c>
       <c r="I58">
